--- a/output/StructureDefinition-MyPatient.xlsx
+++ b/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-18T10:33:32+07:00</t>
+    <t>2023-12-18T17:49:54+07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-MyPatient.xlsx
+++ b/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-18T17:49:54+07:00</t>
+    <t>2023-12-18T23:39:05+07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-MyPatient.xlsx
+++ b/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-18T23:39:05+07:00</t>
+    <t>2023-12-19T01:00:26+07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-MyPatient.xlsx
+++ b/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T01:00:26+07:00</t>
+    <t>2023-12-19T23:50:11+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
